--- a/data/trans_orig/P1406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>18168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10828</v>
+        <v>11392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27949</v>
+        <v>28159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01864024114485301</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01111010166302679</v>
+        <v>0.01168875128043021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02867659811163068</v>
+        <v>0.02889184891062779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -763,19 +763,19 @@
         <v>30852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21498</v>
+        <v>21058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46201</v>
+        <v>42878</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02308226660533407</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01608363829470011</v>
+        <v>0.01575495276832484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03456572565512781</v>
+        <v>0.03207959880940569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -784,19 +784,19 @@
         <v>49020</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37668</v>
+        <v>36603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64576</v>
+        <v>65265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02120909132132329</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01629777230434141</v>
+        <v>0.01583687450266777</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02793975013367118</v>
+        <v>0.02823773718019335</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>956475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>946694</v>
+        <v>946484</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>963815</v>
+        <v>963251</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.981359758855147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9713234018883693</v>
+        <v>0.9711081510893721</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9888898983369733</v>
+        <v>0.9883112487195698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1217</v>
@@ -834,19 +834,19 @@
         <v>1305762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1290413</v>
+        <v>1293736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1315116</v>
+        <v>1315556</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9769177333946659</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9654342743448719</v>
+        <v>0.9679204011905942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9839163617052995</v>
+        <v>0.9842450472316752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2108</v>
@@ -855,19 +855,19 @@
         <v>2262237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2246681</v>
+        <v>2245992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2273589</v>
+        <v>2274654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9787909086786767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9720602498663283</v>
+        <v>0.9717622628198068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9837022276956585</v>
+        <v>0.9841631254973322</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>19272</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12317</v>
+        <v>11432</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31930</v>
+        <v>30720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009812786978867123</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006271522498327054</v>
+        <v>0.005820777985458597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01625807040311696</v>
+        <v>0.01564166658218177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -980,19 +980,19 @@
         <v>8148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2833</v>
+        <v>3279</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16848</v>
+        <v>17601</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004644059713232911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001614464562373455</v>
+        <v>0.001868934337862158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009602463526119657</v>
+        <v>0.0100313892612481</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1001,19 +1001,19 @@
         <v>27420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17708</v>
+        <v>17345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40611</v>
+        <v>40561</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007373930706802277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004762050475644032</v>
+        <v>0.004664581414248424</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0109210652728634</v>
+        <v>0.01090780025497314</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1944685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1932027</v>
+        <v>1933237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1951640</v>
+        <v>1952525</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9901872130211329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.983741929596883</v>
+        <v>0.9843583334178182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937284775016729</v>
+        <v>0.9941792220145413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1627</v>
@@ -1051,19 +1051,19 @@
         <v>1746444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1737744</v>
+        <v>1736991</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1751759</v>
+        <v>1751313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9953559402867671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9903975364738806</v>
+        <v>0.989968610738752</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983855354376265</v>
+        <v>0.9981310656621379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3465</v>
@@ -1072,19 +1072,19 @@
         <v>3691129</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3677938</v>
+        <v>3677988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3700841</v>
+        <v>3701204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9926260692931977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9890789347271366</v>
+        <v>0.9890921997450269</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.995237949524356</v>
+        <v>0.9953354185857516</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>3133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8326</v>
+        <v>8297</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006510172231285178</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001973603385958205</v>
+        <v>0.001980488908738688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01730224422159636</v>
+        <v>0.01724215563723935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1200,16 +1200,16 @@
         <v>1005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9855</v>
+        <v>9371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008980598446011448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002191637346136626</v>
+        <v>0.002192115086077574</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02148741092675379</v>
+        <v>0.02043241766020936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1218,19 +1218,19 @@
         <v>7251</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3057</v>
+        <v>3112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14378</v>
+        <v>15282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007715746993564791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003252287648459596</v>
+        <v>0.003311803057809418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01529830754013701</v>
+        <v>0.01626103889865109</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>478048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>472855</v>
+        <v>472884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480231</v>
+        <v>480228</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9934898277687149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9826977557784039</v>
+        <v>0.9827578443627606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980263966140418</v>
+        <v>0.9980195110912613</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1268,7 +1268,7 @@
         <v>454512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>448776</v>
+        <v>449260</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>457626</v>
@@ -1277,10 +1277,10 @@
         <v>0.9910194015539886</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9785125890732463</v>
+        <v>0.9795675823397909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9978083626538634</v>
+        <v>0.9978078849139225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>843</v>
@@ -1289,19 +1289,19 @@
         <v>932562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>925435</v>
+        <v>924531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>936756</v>
+        <v>936701</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9922842530064352</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9847016924598631</v>
+        <v>0.9837389611013488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9967477123515405</v>
+        <v>0.9966881969421906</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>40572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29330</v>
+        <v>28581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56861</v>
+        <v>54995</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01186392939069836</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008576705108613259</v>
+        <v>0.008357667684487665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01662702088655973</v>
+        <v>0.01608135008282718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1414,19 +1414,19 @@
         <v>43119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31107</v>
+        <v>31041</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59087</v>
+        <v>58937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01214683622017832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008762886935520563</v>
+        <v>0.008744464015910558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01664504020822997</v>
+        <v>0.01660264592124343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -1435,19 +1435,19 @@
         <v>83691</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66675</v>
+        <v>65474</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104704</v>
+        <v>104033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01200802236523331</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009566472759939874</v>
+        <v>0.00939427209869354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01502290405539366</v>
+        <v>0.01492659477115278</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3379210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3362921</v>
+        <v>3364787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3390452</v>
+        <v>3391201</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9881360706093016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9833729791134401</v>
+        <v>0.9839186499171725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9914232948913866</v>
+        <v>0.9916423323155124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3252</v>
@@ -1485,19 +1485,19 @@
         <v>3506718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3490750</v>
+        <v>3490900</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3518730</v>
+        <v>3518796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9878531637798217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.98335495979177</v>
+        <v>0.9833973540787565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9912371130644794</v>
+        <v>0.9912555359840894</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6416</v>
@@ -1506,19 +1506,19 @@
         <v>6885928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6864915</v>
+        <v>6865586</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6902944</v>
+        <v>6904145</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9879919776347666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.984977095944606</v>
+        <v>0.9850734052288472</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9904335272400601</v>
+        <v>0.9906057279013063</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>5813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2007</v>
+        <v>2177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12475</v>
+        <v>12005</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007705634154387478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002661048614438814</v>
+        <v>0.00288582530803261</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01653760539884887</v>
+        <v>0.01591442847127445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -1870,19 +1870,19 @@
         <v>16076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8863</v>
+        <v>9218</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26281</v>
+        <v>25751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01616240354210102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008910987778151804</v>
+        <v>0.00926740116969592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02642219134535934</v>
+        <v>0.02588972195195353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -1891,19 +1891,19 @@
         <v>21889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13490</v>
+        <v>12767</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32801</v>
+        <v>34216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01251499851824904</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007712665381774889</v>
+        <v>0.007299477080627521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01875426942764894</v>
+        <v>0.01956306394716003</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>748534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>741872</v>
+        <v>742342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>752340</v>
+        <v>752170</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9922943658456125</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983462394601151</v>
+        <v>0.9840855715287256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9973389513855612</v>
+        <v>0.9971141746919674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>878</v>
@@ -1941,19 +1941,19 @@
         <v>978584</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>968379</v>
+        <v>968909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>985797</v>
+        <v>985442</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9838375964578989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9735778086546408</v>
+        <v>0.9741102780480465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9910890122218483</v>
+        <v>0.9907325988303041</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1634</v>
@@ -1962,19 +1962,19 @@
         <v>1727118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1716206</v>
+        <v>1714791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1735517</v>
+        <v>1736240</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.987485001481751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9812457305723511</v>
+        <v>0.9804369360528399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9922873346182254</v>
+        <v>0.9927005229193724</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>8506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3839</v>
+        <v>3327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18059</v>
+        <v>17741</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004096601846642922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001848788053559756</v>
+        <v>0.001602338235433218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008697106008342734</v>
+        <v>0.008544259518122363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2087,19 +2087,19 @@
         <v>16250</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9676</v>
+        <v>9415</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26651</v>
+        <v>26089</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008172781139878658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004866271771688638</v>
+        <v>0.004735407542738473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01340400646505043</v>
+        <v>0.01312116712064632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -2108,19 +2108,19 @@
         <v>24756</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15653</v>
+        <v>16234</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37678</v>
+        <v>37292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006090524498086412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003851009178126633</v>
+        <v>0.003993913599766704</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009269706634488782</v>
+        <v>0.009174649628009443</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2067879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2058326</v>
+        <v>2058644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2072546</v>
+        <v>2073058</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995903398153357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9913028939916574</v>
+        <v>0.9914557404818779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981512119464402</v>
+        <v>0.9983976617645668</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1893</v>
@@ -2158,19 +2158,19 @@
         <v>1972050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1961649</v>
+        <v>1962211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1978624</v>
+        <v>1978885</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9918272188601214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9865959935349494</v>
+        <v>0.9868788328793537</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9951337282283113</v>
+        <v>0.9952645924572616</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3838</v>
@@ -2179,19 +2179,19 @@
         <v>4039929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4027007</v>
+        <v>4027393</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4049032</v>
+        <v>4048451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9939094755019136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9907302933655121</v>
+        <v>0.9908253503719906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9961489908218736</v>
+        <v>0.9960060864002334</v>
       </c>
     </row>
     <row r="9">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4712</v>
+        <v>4660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00170129443702803</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008616962544749609</v>
+        <v>0.008521273653059179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6679</v>
+        <v>6047</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0035327326907935</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01216180845963659</v>
+        <v>0.01101103045280719</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -2325,19 +2325,19 @@
         <v>2870</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7993</v>
+        <v>7746</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002618896877788945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0008248845154735053</v>
+        <v>0.0008210135248174413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007292434497490332</v>
+        <v>0.007067543784825673</v>
       </c>
     </row>
     <row r="11">
@@ -2354,7 +2354,7 @@
         <v>545956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>542174</v>
+        <v>542226</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -2363,7 +2363,7 @@
         <v>0.998298705562972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9913830374552504</v>
+        <v>0.9914787263469408</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>547200</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542461</v>
+        <v>543093</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -2384,7 +2384,7 @@
         <v>0.9964672673092065</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9878381915403632</v>
+        <v>0.9889889695471934</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2396,19 +2396,19 @@
         <v>1093157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1088034</v>
+        <v>1088281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1095123</v>
+        <v>1095127</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9973811031222111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9927075655025084</v>
+        <v>0.992932456215174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9991751154845265</v>
+        <v>0.9991789864751826</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>15249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8629</v>
+        <v>8377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25057</v>
+        <v>26212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004514796356561176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0025547113470279</v>
+        <v>0.002480056332441636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007418518333285147</v>
+        <v>0.007760493125860967</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -2521,19 +2521,19 @@
         <v>34266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23528</v>
+        <v>24066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48187</v>
+        <v>49946</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009701311042918565</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006661266575604206</v>
+        <v>0.006813548078203175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01364271029304073</v>
+        <v>0.01414068006780731</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -2542,19 +2542,19 @@
         <v>49515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35696</v>
+        <v>36259</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65460</v>
+        <v>64705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007166031930260451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005165998995528741</v>
+        <v>0.005247559739998205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00947363602846894</v>
+        <v>0.009364339514481913</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3362369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3352561</v>
+        <v>3351406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3368989</v>
+        <v>3369241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9954852036434388</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9925814816667142</v>
+        <v>0.9922395068741383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974452886529721</v>
+        <v>0.9975199436675583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3295</v>
@@ -2592,19 +2592,19 @@
         <v>3497834</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3483913</v>
+        <v>3482154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3508572</v>
+        <v>3508034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9902986889570814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9863572897069589</v>
+        <v>0.9858593199321926</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9933387334243958</v>
+        <v>0.9931864519217964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6496</v>
@@ -2613,19 +2613,19 @@
         <v>6860203</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6844258</v>
+        <v>6845013</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6874022</v>
+        <v>6873459</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9928339680697396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.990526363971531</v>
+        <v>0.990635660485518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9948340010044713</v>
+        <v>0.9947524402600016</v>
       </c>
     </row>
     <row r="15">
